--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC5DFDA-A70B-CA4A-8A5A-5BC995B6F671}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6DBE9-4D32-534B-AA5A-BF6489DBDC1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
-    <t>가족 농장</t>
-  </si>
-  <si>
     <t>3km</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>인천광역시 강화군 불은면</t>
   </si>
   <si>
-    <t>인천광역시 강화군 삼산면 (석모도)</t>
-  </si>
-  <si>
     <t>인천광역시 강화군 강화읍</t>
   </si>
   <si>
@@ -134,6 +128,14 @@
   </si>
   <si>
     <t>farm_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 강화군 삼산면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,59 +506,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -567,7 +569,7 @@
         <v>43725</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>2369</v>
@@ -598,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>37.741280000000003</v>
@@ -619,7 +621,7 @@
         <v>43726</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>4638</v>
@@ -650,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>38.089590000000001</v>
@@ -659,7 +661,7 @@
         <v>127.0136</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O10" si="1">F3</f>
+        <f t="shared" ref="O3:O11" si="1">F3</f>
         <v>10406</v>
       </c>
     </row>
@@ -671,7 +673,7 @@
         <v>43731</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>2119</v>
@@ -698,11 +700,11 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K10" si="4">K3+J4</f>
+        <f t="shared" ref="K4:K11" si="4">K3+J4</f>
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>37.691929999999999</v>
@@ -723,7 +725,7 @@
         <v>43732</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>2273</v>
@@ -754,7 +756,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <v>37.960473999999998</v>
@@ -775,7 +777,7 @@
         <v>43732</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>388</v>
@@ -806,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>37.780537000000002</v>
@@ -827,7 +829,7 @@
         <v>43733</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>830</v>
@@ -858,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>37.686315</v>
@@ -879,7 +881,7 @@
         <v>43734</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -910,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>37.703367999999998</v>
@@ -931,7 +933,7 @@
         <v>43734</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>980</v>
@@ -962,7 +964,7 @@
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>37.752794999999999</v>
@@ -983,7 +985,7 @@
         <v>43735</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -1015,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>37.765825999999997</v>
@@ -1026,6 +1028,46 @@
       <c r="O10" s="1">
         <f t="shared" si="1"/>
         <v>28217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43736</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11" si="5">SUM(D11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11" si="6">G10+D11</f>
+        <v>15599</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11" si="7">H10+E11</f>
+        <v>73873</v>
+      </c>
+      <c r="I11" s="1">
+        <v>89473</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6DBE9-4D32-534B-AA5A-BF6489DBDC1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD60EC5-BDD2-8140-9204-9229AAC055C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>석모도</t>
   </si>
   <si>
-    <t>비육돈</t>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +133,10 @@
   </si>
   <si>
     <t>인천광역시 강화군 삼산면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화도 전체 안락사 결정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,59 +507,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -569,7 +570,7 @@
         <v>43725</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>2369</v>
@@ -600,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2">
         <v>37.741280000000003</v>
@@ -621,7 +622,7 @@
         <v>43726</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>4638</v>
@@ -673,7 +674,7 @@
         <v>43731</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>2119</v>
@@ -725,7 +726,7 @@
         <v>43732</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>2273</v>
@@ -756,7 +757,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>37.960473999999998</v>
@@ -777,7 +778,7 @@
         <v>43732</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>388</v>
@@ -829,7 +830,7 @@
         <v>43733</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>830</v>
@@ -860,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7">
         <v>37.686315</v>
@@ -881,7 +882,7 @@
         <v>43734</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -933,7 +934,7 @@
         <v>43734</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>980</v>
@@ -985,7 +986,7 @@
         <v>43735</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -1010,14 +1011,14 @@
         <v>89472</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="M10">
         <v>37.765825999999997</v>
@@ -1063,10 +1064,50 @@
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43737</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12" si="8">SUM(D12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12" si="9">G11+D12</f>
+        <v>15599</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="10">H11+E12</f>
+        <v>73873</v>
+      </c>
+      <c r="I12" s="1">
+        <v>89473</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12" si="11">K11+J12</f>
+        <v>62</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12" si="12">F12</f>
         <v>0</v>
       </c>
     </row>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD60EC5-BDD2-8140-9204-9229AAC055C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C15353-FADE-7143-B9DF-3E6B77B93D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1085,15 +1085,15 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12" si="8">SUM(D12:E12)</f>
+        <f t="shared" ref="F12:F13" si="8">SUM(D12:E12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12" si="9">G11+D12</f>
+        <f t="shared" ref="G12:G13" si="9">G11+D12</f>
         <v>15599</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12" si="10">H11+E12</f>
+        <f t="shared" ref="H12:H13" si="10">H11+E12</f>
         <v>73873</v>
       </c>
       <c r="I12" s="1">
@@ -1103,11 +1103,91 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="11">K11+J12</f>
+        <f t="shared" ref="K12:K13" si="11">K11+J12</f>
         <v>62</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12" si="12">F12</f>
+        <f t="shared" ref="O12:O13" si="12">F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="9"/>
+        <v>15599</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="10"/>
+        <v>73873</v>
+      </c>
+      <c r="I13" s="1">
+        <v>89473</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43739</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14" si="13">SUM(D14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="14">G13+D14</f>
+        <v>15599</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="15">H13+E14</f>
+        <v>73873</v>
+      </c>
+      <c r="I14" s="1">
+        <v>89473</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="16">K13+J14</f>
+        <v>62</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14" si="17">F14</f>
         <v>0</v>
       </c>
     </row>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C15353-FADE-7143-B9DF-3E6B77B93D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFB553-C9B4-1546-9CA9-B740B35529C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <t>석모도</t>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,10 @@
   </si>
   <si>
     <t>강화도 전체 안락사 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시 파평면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,23 +507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -532,25 +532,25 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -558,637 +558,777 @@
       <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
         <v>43725</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2369</v>
       </c>
       <c r="D2" s="1">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM(C2:D2)</f>
+        <v>4927</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2</f>
         <v>2369</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2558</v>
-      </c>
-      <c r="F2" s="1">
-        <f>SUM(D2:E2)</f>
-        <v>4927</v>
       </c>
       <c r="G2" s="1">
         <f>D2</f>
-        <v>2369</v>
+        <v>2558</v>
       </c>
       <c r="H2" s="1">
+        <v>4927</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>37.741280000000003</v>
+      </c>
+      <c r="M2">
+        <v>126.7137</v>
+      </c>
+      <c r="N2" s="1">
         <f>E2</f>
-        <v>2558</v>
-      </c>
-      <c r="I2" s="1">
         <v>4927</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <f>J2</f>
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>37.741280000000003</v>
-      </c>
-      <c r="N2">
-        <v>126.7137</v>
-      </c>
-      <c r="O2" s="1">
-        <f>F2</f>
-        <v>4927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
         <v>43726</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4638</v>
       </c>
       <c r="D3" s="1">
-        <v>4638</v>
+        <v>5768</v>
       </c>
       <c r="E3" s="1">
-        <v>5768</v>
+        <f t="shared" ref="E3:E14" si="0">SUM(C3:D3)</f>
+        <v>10406</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">SUM(D3:E3)</f>
-        <v>10406</v>
+        <f>F2+C3</f>
+        <v>7007</v>
       </c>
       <c r="G3" s="1">
         <f>G2+D3</f>
+        <v>8326</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15333</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>J2+I3</f>
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>38.089590000000001</v>
+      </c>
+      <c r="M3">
+        <v>127.0136</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N15" si="1">E3</f>
+        <v>10406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>43727</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" si="2">F3+C4</f>
         <v>7007</v>
       </c>
-      <c r="H3" s="1">
-        <f>H2+E3</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G7" si="3">G3+D4</f>
         <v>8326</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H4" s="1">
         <v>15333</v>
       </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <f>K2+J3</f>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="4">J3+I4</f>
         <v>7</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>38.089590000000001</v>
-      </c>
-      <c r="N3">
-        <v>127.0136</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O11" si="1">F3</f>
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>43728</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>7007</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>8326</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15333</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>43729</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>7007</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>8326</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15333</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>43730</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>7007</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>8326</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15333</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
         <v>43731</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
         <v>2119</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D8" s="1">
         <v>2070</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>4189</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="2">G3+D4</f>
+      <c r="F8" s="1">
+        <f>F3+C8</f>
         <v>9126</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H10" si="3">H3+E4</f>
+      <c r="G8" s="1">
+        <f>G3+D8</f>
         <v>10396</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H8" s="1">
         <v>19522</v>
       </c>
-      <c r="J4">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K11" si="4">K3+J4</f>
+      <c r="J8">
+        <f>J3+I8</f>
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>37.691929999999999</v>
       </c>
-      <c r="N4">
+      <c r="M8">
         <v>126.59726000000001</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>4189</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
         <v>43732</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
         <v>2273</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D9" s="1">
         <v>29720</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>31993</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F14" si="5">F8+C9</f>
         <v>11399</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G14" si="6">G8+D9</f>
         <v>40116</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H9" s="1">
         <v>51515</v>
       </c>
-      <c r="J5">
+      <c r="I9">
         <v>16</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
+      <c r="J9">
+        <f t="shared" ref="J9:J15" si="7">J8+I9</f>
         <v>27</v>
       </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5">
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
         <v>37.960473999999998</v>
       </c>
-      <c r="N5">
+      <c r="M9">
         <v>126.93329300000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>31993</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
         <v>43732</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
         <v>388</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>388</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
+      <c r="F10" s="1">
+        <f t="shared" si="5"/>
         <v>11787</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
+      <c r="G10" s="1">
+        <f t="shared" si="6"/>
         <v>40116</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H10" s="1">
         <v>51903</v>
       </c>
-      <c r="J6">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
+      <c r="J10">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>37.780537000000002</v>
       </c>
-      <c r="N6">
+      <c r="M10">
         <v>126.463416</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
         <v>43733</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
         <v>830</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D11" s="1">
         <v>7520</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
+      <c r="F11" s="1">
+        <f t="shared" si="5"/>
         <v>12617</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
+      <c r="G11" s="1">
+        <f t="shared" si="6"/>
         <v>47636</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H11" s="1">
         <v>60253</v>
       </c>
-      <c r="J7">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
+      <c r="J11">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7">
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11">
         <v>37.686315</v>
       </c>
-      <c r="N7">
+      <c r="M11">
         <v>126.481623</v>
       </c>
-      <c r="O7" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>8350</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
         <v>43734</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
+      <c r="F12" s="1">
+        <f t="shared" si="5"/>
         <v>12619</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
+      <c r="G12" s="1">
+        <f t="shared" si="6"/>
         <v>47636</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H12" s="1">
         <v>60255</v>
       </c>
-      <c r="J8">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
+      <c r="J12">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K12" t="s">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="L12">
         <v>37.703367999999998</v>
       </c>
-      <c r="N8">
+      <c r="M12">
         <v>126.319669</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
         <v>43734</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
         <v>980</v>
       </c>
-      <c r="E9">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
+      <c r="F13" s="1">
+        <f t="shared" si="5"/>
         <v>13599</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
+      <c r="G13" s="1">
+        <f t="shared" si="6"/>
         <v>47656</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H13" s="1">
         <v>61255</v>
       </c>
-      <c r="J9">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
+      <c r="J13">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>37.752794999999999</v>
       </c>
-      <c r="N9">
+      <c r="M13">
         <v>126.49419</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
         <v>43735</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>2000</v>
       </c>
-      <c r="E10">
+      <c r="D14">
         <f>800+25417</f>
         <v>26217</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>28217</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
+      <c r="F14" s="1">
+        <f t="shared" si="5"/>
         <v>15599</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
         <v>73873</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H14" s="1">
         <v>89472</v>
       </c>
-      <c r="J10">
+      <c r="I14">
         <v>27</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
+      <c r="J14">
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10">
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14">
         <v>37.765825999999997</v>
       </c>
-      <c r="N10">
+      <c r="M14">
         <v>126.401081</v>
       </c>
-      <c r="O10" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>28217</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>43736</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="8">SUM(C15:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15" si="9">F14+C15</f>
+        <v>15599</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="10">G14+D15</f>
+        <v>73873</v>
+      </c>
+      <c r="H15" s="1">
+        <v>89473</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>43737</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E17" si="11">SUM(C16:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:F17" si="12">F15+C16</f>
+        <v>15599</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G17" si="13">G15+D16</f>
+        <v>73873</v>
+      </c>
+      <c r="H16" s="1">
+        <v>89473</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J17" si="14">J15+I16</f>
+        <v>62</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ref="N16:N17" si="15">E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="12"/>
+        <v>15599</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="13"/>
+        <v>73873</v>
+      </c>
+      <c r="H17" s="1">
+        <v>89473</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E19" si="16">SUM(C18:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18" si="17">F17+C18</f>
+        <v>15599</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18" si="18">G17+D18</f>
+        <v>73873</v>
+      </c>
+      <c r="H18" s="1">
+        <v>89473</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J19" si="19">J17+I18</f>
+        <v>62</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N19" si="20">E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>43740</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2400</v>
+      </c>
+      <c r="D19">
+        <v>12123</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="16"/>
+        <v>14523</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="21">F18+C19</f>
+        <v>17999</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="22">G18+D19</f>
+        <v>85996</v>
+      </c>
+      <c r="H19" s="1">
+        <v>89474</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>43736</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11" si="5">SUM(D11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11" si="6">G10+D11</f>
-        <v>15599</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11" si="7">H10+E11</f>
-        <v>73873</v>
-      </c>
-      <c r="I11" s="1">
-        <v>89473</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43737</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:F13" si="8">SUM(D12:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:G13" si="9">G11+D12</f>
-        <v>15599</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ref="H12:H13" si="10">H11+E12</f>
-        <v>73873</v>
-      </c>
-      <c r="I12" s="1">
-        <v>89473</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K13" si="11">K11+J12</f>
-        <v>62</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" ref="O12:O13" si="12">F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43738</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="9"/>
-        <v>15599</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="10"/>
-        <v>73873</v>
-      </c>
-      <c r="I13" s="1">
-        <v>89473</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="11"/>
-        <v>62</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43739</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ref="F14" si="13">SUM(D14:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14" si="14">G13+D14</f>
-        <v>15599</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14" si="15">H13+E14</f>
-        <v>73873</v>
-      </c>
-      <c r="I14" s="1">
-        <v>89473</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14" si="16">K13+J14</f>
-        <v>62</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" ref="O14" si="17">F14</f>
-        <v>0</v>
+      <c r="J19">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="L19">
+        <v>37.911895000000001</v>
+      </c>
+      <c r="M19">
+        <v>126.850925</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="20"/>
+        <v>14523</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFB553-C9B4-1546-9CA9-B740B35529C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AC2FC-8A26-204A-80F8-E65CA1D6A0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>3km</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>파주시 파평면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시 적성면 주월리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑돼지; 잔반급여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -585,6 +593,7 @@
         <v>2558</v>
       </c>
       <c r="H2" s="1">
+        <f>E2</f>
         <v>4927</v>
       </c>
       <c r="I2">
@@ -634,6 +643,7 @@
         <v>8326</v>
       </c>
       <c r="H3" s="1">
+        <f>H2+E3</f>
         <v>15333</v>
       </c>
       <c r="I3">
@@ -680,13 +690,14 @@
         <v>8326</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H20" si="4">H3+E4</f>
         <v>15333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="4">J3+I4</f>
+        <f t="shared" ref="J4:J7" si="5">J3+I4</f>
         <v>7</v>
       </c>
       <c r="N4" s="1"/>
@@ -714,13 +725,14 @@
         <v>8326</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="4"/>
         <v>15333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N5" s="1"/>
@@ -748,13 +760,14 @@
         <v>8326</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="4"/>
         <v>15333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N6" s="1"/>
@@ -782,13 +795,14 @@
         <v>8326</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="4"/>
         <v>15333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N7" s="1"/>
@@ -819,6 +833,7 @@
         <v>10396</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="4"/>
         <v>19522</v>
       </c>
       <c r="I8">
@@ -860,21 +875,22 @@
         <v>31993</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F14" si="5">F8+C9</f>
+        <f t="shared" ref="F9:F14" si="6">F8+C9</f>
         <v>11399</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G14" si="6">G8+D9</f>
+        <f t="shared" ref="G9:G14" si="7">G8+D9</f>
         <v>40116</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="4"/>
         <v>51515</v>
       </c>
       <c r="I9">
         <v>16</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J15" si="7">J8+I9</f>
+        <f t="shared" ref="J9:J15" si="8">J8+I9</f>
         <v>27</v>
       </c>
       <c r="K9" t="s">
@@ -909,21 +925,22 @@
         <v>388</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11787</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40116</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="4"/>
         <v>51903</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="K10" t="s">
@@ -958,21 +975,22 @@
         <v>8350</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12617</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47636</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="4"/>
         <v>60253</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="K11" t="s">
@@ -1007,21 +1025,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12619</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47636</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="4"/>
         <v>60255</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="K12" t="s">
@@ -1056,21 +1075,22 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13599</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47656</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="4"/>
         <v>61255</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="K13" t="s">
@@ -1106,21 +1126,22 @@
         <v>28217</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15599</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73873</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="4"/>
         <v>89472</v>
       </c>
       <c r="I14">
         <v>27</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="K14" t="s">
@@ -1148,25 +1169,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15" si="8">SUM(C15:D15)</f>
+        <f t="shared" ref="E15" si="9">SUM(C15:D15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15" si="9">F14+C15</f>
+        <f t="shared" ref="F15" si="10">F14+C15</f>
         <v>15599</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15" si="10">G14+D15</f>
+        <f t="shared" ref="G15" si="11">G14+D15</f>
         <v>73873</v>
       </c>
       <c r="H15" s="1">
-        <v>89473</v>
+        <f t="shared" si="4"/>
+        <v>89472</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="N15" s="1">
@@ -1185,29 +1207,30 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E17" si="11">SUM(C16:D16)</f>
+        <f t="shared" ref="E16:E17" si="12">SUM(C16:D16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F17" si="12">F15+C16</f>
+        <f t="shared" ref="F16:F17" si="13">F15+C16</f>
         <v>15599</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G17" si="13">G15+D16</f>
+        <f t="shared" ref="G16:G17" si="14">G15+D16</f>
         <v>73873</v>
       </c>
       <c r="H16" s="1">
-        <v>89473</v>
+        <f t="shared" si="4"/>
+        <v>89472</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J17" si="14">J15+I16</f>
+        <f t="shared" ref="J16:J17" si="15">J15+I16</f>
         <v>62</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ref="N16:N17" si="15">E16</f>
+        <f t="shared" ref="N16:N17" si="16">E16</f>
         <v>0</v>
       </c>
     </row>
@@ -1222,29 +1245,30 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15599</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>73873</v>
       </c>
       <c r="H17" s="1">
-        <v>89473</v>
+        <f t="shared" si="4"/>
+        <v>89472</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1259,29 +1283,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E19" si="16">SUM(C18:D18)</f>
+        <f t="shared" ref="E18:E20" si="17">SUM(C18:D18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="17">F17+C18</f>
+        <f t="shared" ref="F18" si="18">F17+C18</f>
         <v>15599</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="18">G17+D18</f>
+        <f t="shared" ref="G18" si="19">G17+D18</f>
         <v>73873</v>
       </c>
       <c r="H18" s="1">
-        <v>89473</v>
+        <f t="shared" si="4"/>
+        <v>89472</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J19" si="19">J17+I18</f>
+        <f t="shared" ref="J18:J20" si="20">J17+I18</f>
         <v>62</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:N19" si="20">E18</f>
+        <f t="shared" ref="N18:N20" si="21">E18</f>
         <v>0</v>
       </c>
     </row>
@@ -1299,26 +1324,30 @@
         <v>12123</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14523</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="21">F18+C19</f>
+        <f t="shared" ref="F19" si="22">F18+C19</f>
         <v>17999</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="22">G18+D19</f>
+        <f t="shared" ref="G19" si="23">G18+D19</f>
         <v>85996</v>
       </c>
       <c r="H19" s="1">
-        <v>89474</v>
+        <f t="shared" si="4"/>
+        <v>103995</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>0</v>
       </c>
       <c r="L19">
         <v>37.911895000000001</v>
@@ -1327,8 +1356,58 @@
         <v>126.850925</v>
       </c>
       <c r="N19" s="1">
+        <f t="shared" si="21"/>
+        <v>14523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>43740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>2585</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="17"/>
+        <v>2603</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20" si="24">F19+C20</f>
+        <v>18017</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20" si="25">G19+D20</f>
+        <v>88581</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>106598</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="20"/>
-        <v>14523</v>
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>37.984304000000002</v>
+      </c>
+      <c r="M20">
+        <v>126.89487099999999</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="21"/>
+        <v>2603</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AC2FC-8A26-204A-80F8-E65CA1D6A0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45947A5B-9E9F-3549-BB20-2FA033D553BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>3km</t>
   </si>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>흑돼지; 잔반급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시 문산읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포시 통진읍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1283,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E20" si="17">SUM(C18:D18)</f>
+        <f t="shared" ref="E18:E22" si="17">SUM(C18:D18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1302,11 +1310,11 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J20" si="20">J17+I18</f>
+        <f t="shared" ref="J18:J22" si="20">J17+I18</f>
         <v>62</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:N20" si="21">E18</f>
+        <f t="shared" ref="N18:N22" si="21">E18</f>
         <v>0</v>
       </c>
     </row>
@@ -1408,6 +1416,100 @@
       <c r="N20" s="1">
         <f t="shared" si="21"/>
         <v>2603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>43741</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>2300</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="17"/>
+        <v>2300</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F22" si="26">F20+C21</f>
+        <v>20317</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21:G22" si="27">G20+D21</f>
+        <v>88581</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H22" si="28">H20+E21</f>
+        <v>108898</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="L21">
+        <v>37.881413999999999</v>
+      </c>
+      <c r="M21">
+        <v>126.757194</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="21"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>43741</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>2800</v>
+      </c>
+      <c r="D22">
+        <v>6450</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="17"/>
+        <v>9250</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="26"/>
+        <v>23117</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="27"/>
+        <v>95031</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="28"/>
+        <v>118148</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="L22">
+        <v>37.721924999999999</v>
+      </c>
+      <c r="M22">
+        <v>126.584298</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="21"/>
+        <v>9250</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45947A5B-9E9F-3549-BB20-2FA033D553BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D338A1-FB99-9544-BB26-455E405EF13D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>3km</t>
-  </si>
-  <si>
-    <t>석모도</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3km </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파주시 연다산동</t>
   </si>
   <si>
@@ -87,18 +73,6 @@
     <t>파주시 적성면</t>
   </si>
   <si>
-    <t>인천광역시 강화군 송해면</t>
-  </si>
-  <si>
-    <t>인천광역시 강화군 불은면</t>
-  </si>
-  <si>
-    <t>인천광역시 강화군 강화읍</t>
-  </si>
-  <si>
-    <t>인천광역시 강화군 하점면</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -124,35 +98,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가족농장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시 강화군 삼산면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화도 전체 안락사 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파주시 파평면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파주시 적성면 주월리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑돼지; 잔반급여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파주시 문산읍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김포시 통진읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군 송해면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군 불은면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군 삼산면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군 강화읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화군 하점면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시 적성면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사1;유사산4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사1;유사산2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사2;유산1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예찰; 석모도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비육폐사1;모돈식불1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비육폐사1;비출혈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈폐사1;식불4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예찰;  잔반급여; 울타리없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈식불4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비육폐사4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,56 +553,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -580,7 +610,7 @@
         <v>43725</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>2369</v>
@@ -612,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>37.741280000000003</v>
@@ -630,7 +660,7 @@
         <v>43726</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>4638</v>
@@ -662,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>38.089590000000001</v>
@@ -820,7 +850,7 @@
         <v>43731</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>2119</v>
@@ -852,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L8">
         <v>37.691929999999999</v>
@@ -870,7 +900,7 @@
         <v>43732</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>2273</v>
@@ -902,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>37.960473999999998</v>
@@ -920,7 +950,7 @@
         <v>43732</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>388</v>
@@ -952,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>37.780537000000002</v>
@@ -970,7 +1000,7 @@
         <v>43733</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>830</v>
@@ -1002,7 +1032,7 @@
         <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <v>37.686315</v>
@@ -1020,7 +1050,7 @@
         <v>43734</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1052,7 +1082,7 @@
         <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>37.703367999999998</v>
@@ -1070,7 +1100,7 @@
         <v>43734</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>980</v>
@@ -1102,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L13">
         <v>37.752794999999999</v>
@@ -1120,7 +1150,7 @@
         <v>43735</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2000</v>
@@ -1153,7 +1183,7 @@
         <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>37.765825999999997</v>
@@ -1291,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E22" si="17">SUM(C18:D18)</f>
+        <f t="shared" ref="E18:E24" si="17">SUM(C18:D18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1310,11 +1340,11 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J22" si="20">J17+I18</f>
+        <f t="shared" ref="J18:J24" si="20">J17+I18</f>
         <v>62</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:N22" si="21">E18</f>
+        <f t="shared" ref="N18:N24" si="21">E18</f>
         <v>0</v>
       </c>
     </row>
@@ -1323,7 +1353,7 @@
         <v>43740</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2400</v>
@@ -1355,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L19">
         <v>37.911895000000001</v>
@@ -1373,7 +1403,7 @@
         <v>43740</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -1405,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <v>37.984304000000002</v>
@@ -1423,7 +1453,7 @@
         <v>43741</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>2300</v>
@@ -1454,6 +1484,9 @@
         <f t="shared" si="20"/>
         <v>77</v>
       </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
       <c r="L21">
         <v>37.881413999999999</v>
       </c>
@@ -1470,7 +1503,7 @@
         <v>43741</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>2800</v>
@@ -1501,6 +1534,9 @@
         <f t="shared" si="20"/>
         <v>81</v>
       </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
       <c r="L22">
         <v>37.721924999999999</v>
       </c>
@@ -1510,6 +1546,82 @@
       <c r="N22" s="1">
         <f t="shared" si="21"/>
         <v>9250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>43742</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F24" si="29">F22+C23</f>
+        <v>23117</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G24" si="30">G22+D23</f>
+        <v>95031</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23:H24" si="31">H22+E23</f>
+        <v>118148</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>43743</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="29"/>
+        <v>23117</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="30"/>
+        <v>95031</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="31"/>
+        <v>118148</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/asf-timeline/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D338A1-FB99-9544-BB26-455E405EF13D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFE78F-CFA6-9745-B5D6-38DECED8D6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -701,7 +701,7 @@
         <v>127.0136</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N15" si="1">E3</f>
+        <f t="shared" ref="N3:N14" si="1">E3</f>
         <v>10406</v>
       </c>
     </row>
@@ -1229,10 +1229,7 @@
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
@@ -1267,10 +1264,7 @@
         <f t="shared" ref="J16:J17" si="15">J15+I16</f>
         <v>62</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" ref="N16:N17" si="16">E16</f>
-        <v>0</v>
-      </c>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
@@ -1305,10 +1299,7 @@
         <f t="shared" si="15"/>
         <v>62</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
@@ -1321,15 +1312,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E24" si="17">SUM(C18:D18)</f>
+        <f t="shared" ref="E18:E24" si="16">SUM(C18:D18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="18">F17+C18</f>
+        <f t="shared" ref="F18" si="17">F17+C18</f>
         <v>15599</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="19">G17+D18</f>
+        <f t="shared" ref="G18" si="18">G17+D18</f>
         <v>73873</v>
       </c>
       <c r="H18" s="1">
@@ -1340,13 +1331,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J24" si="20">J17+I18</f>
+        <f t="shared" ref="J18:J26" si="19">J17+I18</f>
         <v>62</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" ref="N18:N24" si="21">E18</f>
-        <v>0</v>
-      </c>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
@@ -1362,15 +1350,15 @@
         <v>12123</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>14523</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="22">F18+C19</f>
+        <f t="shared" ref="F19" si="20">F18+C19</f>
         <v>17999</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="23">G18+D19</f>
+        <f t="shared" ref="G19" si="21">G18+D19</f>
         <v>85996</v>
       </c>
       <c r="H19" s="1">
@@ -1381,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="K19" t="s">
@@ -1394,7 +1382,7 @@
         <v>126.850925</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="N19:N22" si="22">E19</f>
         <v>14523</v>
       </c>
     </row>
@@ -1412,15 +1400,15 @@
         <v>2585</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2603</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20" si="24">F19+C20</f>
+        <f t="shared" ref="F20" si="23">F19+C20</f>
         <v>18017</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20" si="25">G19+D20</f>
+        <f t="shared" ref="G20" si="24">G19+D20</f>
         <v>88581</v>
       </c>
       <c r="H20" s="1">
@@ -1431,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="K20" t="s">
@@ -1444,7 +1432,7 @@
         <v>126.89487099999999</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2603</v>
       </c>
     </row>
@@ -1462,26 +1450,26 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2300</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F22" si="26">F20+C21</f>
+        <f t="shared" ref="F21:F22" si="25">F20+C21</f>
         <v>20317</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:G22" si="27">G20+D21</f>
+        <f t="shared" ref="G21:G22" si="26">G20+D21</f>
         <v>88581</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:H22" si="28">H20+E21</f>
+        <f t="shared" ref="H21:H22" si="27">H20+E21</f>
         <v>108898</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>77</v>
       </c>
       <c r="K21" t="s">
@@ -1494,7 +1482,7 @@
         <v>126.757194</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2300</v>
       </c>
     </row>
@@ -1512,26 +1500,26 @@
         <v>6450</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9250</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="25"/>
+        <v>23117</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="26"/>
-        <v>23117</v>
-      </c>
-      <c r="G22" s="1">
+        <v>95031</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="27"/>
-        <v>95031</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="28"/>
         <v>118148</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
       <c r="J22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
       <c r="K22" t="s">
@@ -1544,7 +1532,7 @@
         <v>126.584298</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9250</v>
       </c>
     </row>
@@ -1559,32 +1547,29 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F24" si="29">F22+C23</f>
+        <f t="shared" ref="F23:F24" si="28">F22+C23</f>
         <v>23117</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G24" si="30">G22+D23</f>
+        <f t="shared" ref="G23:G24" si="29">G22+D23</f>
         <v>95031</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ref="H23:H24" si="31">H22+E23</f>
+        <f t="shared" ref="H23:H24" si="30">H22+E23</f>
         <v>118148</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
@@ -1597,32 +1582,99 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="28"/>
+        <v>23117</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="29"/>
+        <v>95031</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="30"/>
+        <v>118148</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>43744</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25:E26" si="31">SUM(C25:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="F25:F26" si="32">F24+C25</f>
         <v>23117</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="30"/>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G26" si="33">G24+D25</f>
         <v>95031</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
+        <f t="shared" ref="H25:H26" si="34">H24+E25</f>
+        <v>118148</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="32"/>
+        <v>23117</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="33"/>
+        <v>95031</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="34"/>
         <v>118148</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="20"/>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="N26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFE78F-CFA6-9745-B5D6-38DECED8D6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB87D5-2AE8-214A-A19B-88C30081F8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
+    <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>비육폐사4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연천군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김포시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,15 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -604,145 +632,160 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
+        <v>43724</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
         <v>43725</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>2369</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>2558</v>
       </c>
-      <c r="E2" s="1">
-        <f>SUM(C2:D2)</f>
+      <c r="E3" s="1">
+        <f>SUM(C3:D3)</f>
         <v>4927</v>
       </c>
-      <c r="F2" s="1">
-        <f>C2</f>
+      <c r="F3" s="1">
+        <f>C3</f>
         <v>2369</v>
       </c>
-      <c r="G2" s="1">
-        <f>D2</f>
+      <c r="G3" s="1">
+        <f>D3</f>
         <v>2558</v>
       </c>
-      <c r="H2" s="1">
-        <f>E2</f>
+      <c r="H3" s="1">
+        <f>E3</f>
         <v>4927</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J2">
-        <f>I2</f>
+      <c r="J3">
+        <f>I3</f>
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>37.741280000000003</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>126.7137</v>
       </c>
-      <c r="N2" s="1">
-        <f>E2</f>
+      <c r="N3" s="1">
+        <f>E3</f>
         <v>4927</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
         <v>43726</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>4638</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>5768</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E14" si="0">SUM(C3:D3)</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E15" si="0">SUM(C4:D4)</f>
         <v>10406</v>
       </c>
-      <c r="F3" s="1">
-        <f>F2+C3</f>
+      <c r="F4" s="1">
+        <f>F3+C4</f>
         <v>7007</v>
       </c>
-      <c r="G3" s="1">
-        <f>G2+D3</f>
+      <c r="G4" s="1">
+        <f>G3+D4</f>
         <v>8326</v>
       </c>
-      <c r="H3" s="1">
-        <f>H2+E3</f>
+      <c r="H4" s="1">
+        <f>H3+E4</f>
         <v>15333</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J3">
-        <f>J2+I3</f>
+      <c r="J4">
+        <f>J3+I4</f>
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>38.089590000000001</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>127.0136</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N14" si="1">E3</f>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N15" si="1">E4</f>
         <v>10406</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
         <v>43727</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F7" si="2">F3+C4</f>
-        <v>7007</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G7" si="3">G3+D4</f>
-        <v>8326</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H20" si="4">H3+E4</f>
-        <v>15333</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J7" si="5">J3+I4</f>
-        <v>7</v>
-      </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
-        <v>43728</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -755,29 +798,32 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F5:F8" si="2">F4+C5</f>
         <v>7007</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G5:G8" si="3">G4+D5</f>
         <v>8326</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H5:H21" si="4">H4+E5</f>
         <v>15333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J5:J8" si="5">J4+I5</f>
         <v>7</v>
       </c>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>43729</v>
+        <v>43728</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -809,10 +855,13 @@
         <v>7</v>
       </c>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -844,227 +893,233 @@
         <v>7</v>
       </c>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>43731</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>43730</v>
       </c>
       <c r="C8" s="1">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>2070</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>4189</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>F3+C8</f>
-        <v>9126</v>
+        <f t="shared" si="2"/>
+        <v>7007</v>
       </c>
       <c r="G8" s="1">
-        <f>G3+D8</f>
-        <v>10396</v>
+        <f t="shared" si="3"/>
+        <v>8326</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
+        <v>15333</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="P8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2119</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2070</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>4189</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F4+C9</f>
+        <v>9126</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G4+D9</f>
+        <v>10396</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
         <v>19522</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="J8">
-        <f>J3+I8</f>
+      <c r="J9">
+        <f>J4+I9</f>
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>37.691929999999999</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>126.59726000000001</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>4189</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2">
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
         <v>43732</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>2273</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>29720</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>31993</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9:F14" si="6">F8+C9</f>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:F15" si="6">F9+C10</f>
         <v>11399</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:G14" si="7">G8+D9</f>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G15" si="7">G9+D10</f>
         <v>40116</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="4"/>
         <v>51515</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J15" si="8">J8+I9</f>
+      <c r="J10">
+        <f t="shared" ref="J10:J16" si="8">J9+I10</f>
         <v>27</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>37.960473999999998</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>126.93329300000001</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>31993</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2">
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
         <v>43732</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>388</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>388</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="6"/>
         <v>11787</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="7"/>
         <v>40116</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="4"/>
         <v>51903</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>37.780537000000002</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>126.463416</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>388</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2">
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2">
         <v>43733</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>830</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>7520</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>8350</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="6"/>
         <v>12617</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="7"/>
-        <v>47636</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>60253</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11">
-        <v>37.686315</v>
-      </c>
-      <c r="M11">
-        <v>126.481623</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="1"/>
-        <v>8350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2">
-        <v>43734</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="6"/>
-        <v>12619</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="7"/>
@@ -1072,150 +1127,168 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="4"/>
-        <v>60255</v>
+        <v>60253</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12">
-        <v>37.703367999999998</v>
+        <v>37.686315</v>
       </c>
       <c r="M12">
-        <v>126.319669</v>
+        <v>126.481623</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>8350</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>43734</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="6"/>
-        <v>13599</v>
+        <v>12619</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="7"/>
-        <v>47656</v>
+        <v>47636</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="4"/>
-        <v>61255</v>
+        <v>60255</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13">
-        <v>37.752794999999999</v>
+        <v>37.703367999999998</v>
       </c>
       <c r="M13">
-        <v>126.49419</v>
+        <v>126.319669</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>980</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2">
+      <c r="F14" s="1">
+        <f t="shared" si="6"/>
+        <v>13599</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="7"/>
+        <v>47656</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>61255</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>37.752794999999999</v>
+      </c>
+      <c r="M14">
+        <v>126.49419</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
         <v>43735</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>2000</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f>800+25417</f>
         <v>26217</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>28217</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="6"/>
         <v>15599</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="7"/>
-        <v>73873</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>89472</v>
-      </c>
-      <c r="I14">
-        <v>27</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14">
-        <v>37.765825999999997</v>
-      </c>
-      <c r="M14">
-        <v>126.401081</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="1"/>
-        <v>28217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2">
-        <v>43736</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15" si="9">SUM(C15:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" ref="F15" si="10">F14+C15</f>
-        <v>15599</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15" si="11">G14+D15</f>
         <v>73873</v>
       </c>
       <c r="H15" s="1">
@@ -1223,17 +1296,35 @@
         <v>89472</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>37.765825999999997</v>
+      </c>
+      <c r="M15">
+        <v>126.401081</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>28217</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1242,15 +1333,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E17" si="12">SUM(C16:D16)</f>
+        <f t="shared" ref="E16" si="9">SUM(C16:D16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F17" si="13">F15+C16</f>
+        <f t="shared" ref="F16" si="10">F15+C16</f>
         <v>15599</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G17" si="14">G15+D16</f>
+        <f t="shared" ref="G16" si="11">G15+D16</f>
         <v>73873</v>
       </c>
       <c r="H16" s="1">
@@ -1261,14 +1352,17 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J17" si="15">J15+I16</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1277,15 +1371,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E17:E18" si="12">SUM(C17:D17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F17:F18" si="13">F16+C17</f>
         <v>15599</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G17:G18" si="14">G16+D17</f>
         <v>73873</v>
       </c>
       <c r="H17" s="1">
@@ -1296,14 +1390,17 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J17:J18" si="15">J16+I17</f>
         <v>62</v>
       </c>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1312,15 +1409,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E24" si="16">SUM(C18:D18)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="17">F17+C18</f>
+        <f t="shared" si="13"/>
         <v>15599</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18" si="18">G17+D18</f>
+        <f t="shared" si="14"/>
         <v>73873</v>
       </c>
       <c r="H18" s="1">
@@ -1331,249 +1428,273 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J26" si="19">J17+I18</f>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E25" si="16">SUM(C19:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="17">F18+C19</f>
+        <v>15599</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="18">G18+D19</f>
+        <v>73873</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>89472</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J27" si="19">J18+I19</f>
+        <v>62</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="P19">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2">
         <v>43740</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2400</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>12123</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="16"/>
         <v>14523</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19" si="20">F18+C19</f>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20" si="20">F19+C20</f>
         <v>17999</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="21">G18+D19</f>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20" si="21">G19+D20</f>
         <v>85996</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="4"/>
         <v>103995</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>10</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>36</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>37.911895000000001</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>126.850925</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19:N22" si="22">E19</f>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N23" si="22">E20</f>
         <v>14523</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2">
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2">
         <v>43740</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2585</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="16"/>
         <v>2603</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" ref="F20" si="23">F19+C20</f>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21" si="23">F20+C21</f>
         <v>18017</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20" si="24">G19+D20</f>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21" si="24">G20+D21</f>
         <v>88581</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="4"/>
         <v>106598</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <f t="shared" si="19"/>
         <v>76</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>37</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>37.984304000000002</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>126.89487099999999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="22"/>
         <v>2603</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2">
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2">
         <v>43741</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2300</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="16"/>
         <v>2300</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" ref="F21:F22" si="25">F20+C21</f>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22:F23" si="25">F21+C22</f>
         <v>20317</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G22" si="26">G20+D21</f>
+      <c r="G22" s="1">
+        <f t="shared" ref="G22:G23" si="26">G21+D22</f>
         <v>88581</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:H22" si="27">H20+E21</f>
+      <c r="H22" s="1">
+        <f t="shared" ref="H22:H23" si="27">H21+E22</f>
         <v>108898</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <f t="shared" si="19"/>
         <v>77</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>38</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>37.881413999999999</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>126.757194</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="22"/>
         <v>2300</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="2">
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2">
         <v>43741</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2800</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>6450</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="16"/>
         <v>9250</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="25"/>
         <v>23117</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="26"/>
         <v>95031</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="27"/>
         <v>118148</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>4</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="19"/>
-        <v>81</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22">
-        <v>37.721924999999999</v>
-      </c>
-      <c r="M22">
-        <v>126.584298</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="22"/>
-        <v>9250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="2">
-        <v>43742</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23:F24" si="28">F22+C23</f>
-        <v>23117</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ref="G23:G24" si="29">G22+D23</f>
-        <v>95031</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ref="H23:H24" si="30">H22+E23</f>
-        <v>118148</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23">
+        <v>37.721924999999999</v>
+      </c>
+      <c r="M23">
+        <v>126.584298</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="22"/>
+        <v>9250</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>43743</v>
+        <v>43742</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1586,15 +1707,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F24:F25" si="28">F23+C24</f>
         <v>23117</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="G24:G25" si="29">G23+D24</f>
         <v>95031</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="H24:H25" si="30">H23+E24</f>
         <v>118148</v>
       </c>
       <c r="I24">
@@ -1605,10 +1726,13 @@
         <v>81</v>
       </c>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P24">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1617,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:E26" si="31">SUM(C25:D25)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F26" si="32">F24+C25</f>
+        <f t="shared" si="28"/>
         <v>23117</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:G26" si="33">G24+D25</f>
+        <f t="shared" si="29"/>
         <v>95031</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:H26" si="34">H24+E25</f>
+        <f t="shared" si="30"/>
         <v>118148</v>
       </c>
       <c r="I25">
@@ -1640,10 +1764,13 @@
         <v>81</v>
       </c>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1652,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="E26:E27" si="31">SUM(C26:D26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="F26:F27" si="32">F25+C26</f>
         <v>23117</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="G26:G27" si="33">G25+D26</f>
         <v>95031</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="H26:H27" si="34">H25+E26</f>
         <v>118148</v>
       </c>
       <c r="I26">
@@ -1675,6 +1802,47 @@
         <v>81</v>
       </c>
       <c r="N26" s="1"/>
+      <c r="P26">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="32"/>
+        <v>23117</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="33"/>
+        <v>95031</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="34"/>
+        <v>118148</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="P27">
+        <v>1139</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB87D5-2AE8-214A-A19B-88C30081F8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD9DE9-8ECA-C24D-B3A9-341A3640DADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연천군 신서면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모돈식불4; 유산2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,16 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="13" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="2" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1520,7 +1527,7 @@
         <v>126.850925</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:N23" si="22">E20</f>
+        <f t="shared" ref="N20:N29" si="22">E20</f>
         <v>14523</v>
       </c>
       <c r="O20" t="s">
@@ -1842,6 +1849,100 @@
       <c r="N27" s="1"/>
       <c r="P27">
         <v>1139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="2">
+        <v>43746</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:E29" si="35">SUM(C28:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F29" si="36">F27+C28</f>
+        <v>23117</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28:G29" si="37">G27+D28</f>
+        <v>95031</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:H29" si="38">H27+E28</f>
+        <v>118148</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J29" si="39">J27+I28</f>
+        <v>81</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="P28">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2">
+        <v>43747</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>4000</v>
+      </c>
+      <c r="D29">
+        <v>4120</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="35"/>
+        <v>8120</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="37"/>
+        <v>99151</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="38"/>
+        <v>126268</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="39"/>
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <v>38.202314000000001</v>
+      </c>
+      <c r="M29">
+        <v>127.093295</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="22"/>
+        <v>8120</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD9DE9-8ECA-C24D-B3A9-341A3640DADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50268DA6-9336-AF47-A52D-ACD332D575A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1900,11 +1900,11 @@
         <v>4000</v>
       </c>
       <c r="D29">
-        <v>4120</v>
+        <v>5320</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="35"/>
-        <v>8120</v>
+        <v>9320</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="36"/>
@@ -1912,18 +1912,18 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="37"/>
-        <v>99151</v>
+        <v>100351</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="38"/>
-        <v>126268</v>
+        <v>127468</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <f t="shared" si="39"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s">
         <v>47</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" si="22"/>
-        <v>8120</v>
+        <v>9320</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
@@ -1944,6 +1944,9 @@
       <c r="P29">
         <v>427</v>
       </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50268DA6-9336-AF47-A52D-ACD332D575A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C745A2-36E7-CF46-92A4-2300BACE657F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>모돈식불4; 유산2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joguk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -596,7 +600,7 @@
     <col min="2" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -645,8 +649,11 @@
       <c r="P1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43724</v>
       </c>
@@ -677,8 +684,11 @@
       <c r="P2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43725</v>
       </c>
@@ -733,8 +743,11 @@
       <c r="P3">
         <v>3248</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43726</v>
       </c>
@@ -789,8 +802,11 @@
       <c r="P4">
         <v>2777</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43727</v>
       </c>
@@ -827,8 +843,11 @@
       <c r="P5">
         <v>1974</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43728</v>
       </c>
@@ -865,8 +884,11 @@
       <c r="P6">
         <v>1392</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43729</v>
       </c>
@@ -903,8 +925,11 @@
       <c r="P7">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43730</v>
       </c>
@@ -941,8 +966,11 @@
       <c r="P8">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43731</v>
       </c>
@@ -997,8 +1025,11 @@
       <c r="P9">
         <v>1632</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43732</v>
       </c>
@@ -1053,8 +1084,11 @@
       <c r="P10">
         <v>2331</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43732</v>
       </c>
@@ -1107,7 +1141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43733</v>
       </c>
@@ -1162,8 +1196,11 @@
       <c r="P12">
         <v>1913</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43734</v>
       </c>
@@ -1218,8 +1255,11 @@
       <c r="P13">
         <v>2002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43734</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43735</v>
       </c>
@@ -1328,8 +1368,11 @@
       <c r="P15">
         <v>1698</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43736</v>
       </c>
@@ -1366,8 +1409,11 @@
       <c r="P16">
         <v>504</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43737</v>
       </c>
@@ -1404,8 +1450,11 @@
       <c r="P17">
         <v>1009</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43738</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P18">
         <v>1360</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43739</v>
       </c>
@@ -1480,8 +1532,11 @@
       <c r="P19">
         <v>1606</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43740</v>
       </c>
@@ -1536,8 +1591,11 @@
       <c r="P20">
         <v>1376</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43740</v>
       </c>
@@ -1590,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43741</v>
       </c>
@@ -1645,8 +1703,11 @@
       <c r="P22">
         <v>892</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43741</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43742</v>
       </c>
@@ -1736,8 +1797,11 @@
       <c r="P24">
         <v>1289</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43743</v>
       </c>
@@ -1774,8 +1838,11 @@
       <c r="P25">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43744</v>
       </c>
@@ -1812,8 +1879,11 @@
       <c r="P26">
         <v>723</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43745</v>
       </c>
@@ -1850,8 +1920,11 @@
       <c r="P27">
         <v>1139</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43746</v>
       </c>
@@ -1888,8 +1961,11 @@
       <c r="P28">
         <v>694</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43747</v>
       </c>
@@ -1944,8 +2020,11 @@
       <c r="P29">
         <v>427</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q29">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="E31" s="1"/>
     </row>
   </sheetData>

--- a/_site/analysis/asf1.xlsx
+++ b/_site/analysis/asf1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/asf-timeline/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C745A2-36E7-CF46-92A4-2300BACE657F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B45DF4-4F9A-C34A-838E-769EA1A4FF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{2AACC2D4-854E-F74E-BE6B-796A2B436E07}"/>
   </bookViews>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0804F0-EC61-6A43-95D6-8C905988A9BD}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1935,11 +1935,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28:E29" si="35">SUM(C28:D28)</f>
+        <f t="shared" ref="E28:E36" si="35">SUM(C28:D28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:F29" si="36">F27+C28</f>
+        <f t="shared" ref="F28:F36" si="36">F27+C28</f>
         <v>23117</v>
       </c>
       <c r="G28" s="1">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J29" si="39">J27+I28</f>
+        <f t="shared" ref="J28:J36" si="39">J27+I28</f>
         <v>81</v>
       </c>
       <c r="N28" s="1"/>
@@ -2024,8 +2024,279 @@
         <v>2215</v>
       </c>
     </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30:G36" si="40">G29+D30</f>
+        <v>100351</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:H36" si="41">H29+E30</f>
+        <v>127468</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P30">
+        <v>784</v>
+      </c>
+      <c r="Q30">
+        <v>2312</v>
+      </c>
+    </row>
     <row r="31" spans="1:17">
-      <c r="E31" s="1"/>
+      <c r="A31" s="2">
+        <v>43749</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P31">
+        <v>426</v>
+      </c>
+      <c r="Q31">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
+        <v>43750</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P32">
+        <v>303</v>
+      </c>
+      <c r="Q32">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
+        <v>43751</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P33">
+        <v>493</v>
+      </c>
+      <c r="Q33">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2">
+        <v>43752</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P34">
+        <v>770</v>
+      </c>
+      <c r="Q34">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2">
+        <v>43753</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="P35">
+        <v>772</v>
+      </c>
+      <c r="Q35">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2">
+        <v>43754</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="36"/>
+        <v>27117</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="40"/>
+        <v>100351</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="41"/>
+        <v>127468</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
